--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/m2SSD 1/Dropbox/Toyo/アルゴリズム/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CE143-31CF-524B-ACC2-0E1EC21274CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD9F26-4889-9F4B-8A74-0DF724C50FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="8840" windowWidth="28300" windowHeight="17360" xr2:uid="{70D9F130-5E46-BD41-8993-F59CC14501D5}"/>
+    <workbookView xWindow="10300" yWindow="4240" windowWidth="28300" windowHeight="17360" activeTab="1" xr2:uid="{70D9F130-5E46-BD41-8993-F59CC14501D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>商品</t>
   </si>
@@ -165,15 +166,61 @@
     <t>9.12257243e-01 8.44127002e-02 3.33005721e-03 3.52303031e-34</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>商品タイプ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショウヒンタイプ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画部の判断</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キカクブ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ハンダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレーの試食評価</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シショク </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒョウカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘口・ファミリー層</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランス型</t>
+  </si>
+  <si>
+    <t>辛口スパイシー</t>
+  </si>
+  <si>
+    <t>濃厚コク重視</t>
+  </si>
+  <si>
+    <t>香り特化</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +260,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -352,119 +415,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3624A-8ED5-374D-96A9-FDFDEE210C05}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:P15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -825,477 +936,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="21" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="21" thickTop="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <v>0.56723745000000003</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="16">
         <v>-0.61097555026481698</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="17">
         <v>7.0198721008803602E-2</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="16">
         <v>2.65015548461071</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="17">
         <v>0.16028727096619599</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>0.34365622000000001</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="16">
         <v>0.65313318046073099</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="17">
         <v>3.3192960184695E-3</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="20" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="16">
         <v>0.27672110401213201</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="17">
         <v>9.0689199543527901E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>7.7041250000000006E-2</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="16">
         <v>-0.27144276891399999</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="17">
         <v>0.73436783700993702</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="31"/>
+      <c r="N5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="16">
         <v>-1.8516717714578299</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="17">
         <v>-0.50546628727286602</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" thickBot="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>1.2065070000000001E-2</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="31"/>
+      <c r="J6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="19">
         <v>-0.35559070399007098</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="20">
         <v>-0.67510369707772799</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="20" t="s">
+      <c r="M6" s="31"/>
+      <c r="N6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="16">
         <v>-0.88265990238194203</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="17">
         <v>1.9371246316794799</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="21" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>9</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="19">
         <v>-0.19254491478307301</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="20">
         <v>-1.6826348149163399</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21" thickBot="1"/>
     <row r="10" spans="1:19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="2" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="2" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="2" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:19" ht="21" thickBot="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="18" t="s">
+      <c r="M11" s="31"/>
+      <c r="N11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="21" thickTop="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="9">
         <v>0.42899999999999999</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="31"/>
+      <c r="J12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="23">
         <v>0.68326471349473705</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="24">
         <v>0.23914523202389301</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="16">
         <v>1.7750988645172301</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="17">
         <v>0.68840394044042896</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="10">
         <v>0.372</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="23">
         <v>-0.53097577307252397</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="24">
         <v>-0.47701799220153002</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="20" t="s">
+      <c r="M13" s="31"/>
+      <c r="N13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="16">
         <v>-1.4712361106290901</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="17">
         <v>-0.96983321949188706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="23">
         <v>0.27453937052132199</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="24">
         <v>-0.58529835617440196</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="20" t="s">
+      <c r="M14" s="31"/>
+      <c r="N14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="16">
         <v>0.71702129003402404</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="17">
         <v>-1.3588381370331299</v>
       </c>
       <c r="S14" t="s">
@@ -1303,46 +1414,46 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21" thickBot="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
         <v>9</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="11">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="8" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="25">
         <v>-0.41933541912977601</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="26">
         <v>0.61048278221076802</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="23" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="19">
         <v>-1.02088404392216</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="20">
         <v>1.64026741608459</v>
       </c>
     </row>
@@ -1445,13 +1556,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:M15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="J1:L1"/>
@@ -1460,6 +1564,169 @@
     <mergeCell ref="F1:F6"/>
     <mergeCell ref="I1:I6"/>
     <mergeCell ref="M1:M6"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:M15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5147157B-D6AB-874E-A981-929068EAC0D7}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" thickTop="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/m2SSD 1/Dropbox/Toyo/アルゴリズム/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD9F26-4889-9F4B-8A74-0DF724C50FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4CF1C-53B9-064B-B092-B9858B33CE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="4240" windowWidth="28300" windowHeight="17360" activeTab="1" xr2:uid="{70D9F130-5E46-BD41-8993-F59CC14501D5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>商品</t>
   </si>
@@ -211,6 +211,63 @@
   </si>
   <si>
     <t>香り特化</t>
+  </si>
+  <si>
+    <t>商品タイプ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショウヒン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘さ特化</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アマサ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香り特化</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カオリ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっとり特化</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">トッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽さ特化</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カルサ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食パンの試食評価</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ショクパン </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シショク </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒョウカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -460,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +624,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -915,7 +981,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="A10" sqref="A10:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1579,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5147157B-D6AB-874E-A981-929068EAC0D7}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H3" sqref="H3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1590,9 +1656,13 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>31</v>
       </c>
@@ -1603,8 +1673,16 @@
       <c r="F1" s="35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" thickBot="1">
+      <c r="H1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1620,11 +1698,29 @@
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" thickTop="1">
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" thickTop="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1640,11 +1736,29 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1660,11 +1774,29 @@
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1680,11 +1812,29 @@
       <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1700,11 +1850,29 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" thickBot="1">
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>9</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1720,13 +1888,14 @@
       <c r="E7" s="5">
         <v>9</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="41" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
